--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.47231337258245</v>
+        <v>0.08140533333333333</v>
       </c>
       <c r="H2">
-        <v>2.47231337258245</v>
+        <v>0.244216</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02119526060933596</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.03145949481834748</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N2">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O2">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P2">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q2">
-        <v>1.140744007417696</v>
+        <v>0.040706411312</v>
       </c>
       <c r="R2">
-        <v>1.140744007417696</v>
+        <v>0.244238467872</v>
       </c>
       <c r="S2">
-        <v>0.01953304342673219</v>
+        <v>0.0004260148566771196</v>
       </c>
       <c r="T2">
-        <v>0.01953304342673219</v>
+        <v>0.0004785372069008522</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.47231337258245</v>
+        <v>0.08140533333333333</v>
       </c>
       <c r="H3">
-        <v>2.47231337258245</v>
+        <v>0.244216</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02119526060933596</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.03145949481834748</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N3">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O3">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P3">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q3">
-        <v>1.617121373451021</v>
+        <v>0.06691380010933333</v>
       </c>
       <c r="R3">
-        <v>1.617121373451021</v>
+        <v>0.602224200984</v>
       </c>
       <c r="S3">
-        <v>0.02769008805526827</v>
+        <v>0.0007002895132368398</v>
       </c>
       <c r="T3">
-        <v>0.02769008805526827</v>
+        <v>0.001179939792359053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.47231337258245</v>
+        <v>0.08140533333333333</v>
       </c>
       <c r="H4">
-        <v>2.47231337258245</v>
+        <v>0.244216</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02119526060933596</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.03145949481834748</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N4">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O4">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P4">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q4">
-        <v>16.88373283878811</v>
+        <v>0.5769165582008889</v>
       </c>
       <c r="R4">
-        <v>16.88373283878811</v>
+        <v>5.192249023808</v>
       </c>
       <c r="S4">
-        <v>0.2891013975098061</v>
+        <v>0.006037747296680901</v>
       </c>
       <c r="T4">
-        <v>0.2891013975098061</v>
+        <v>0.01017319002626943</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.47231337258245</v>
+        <v>0.08140533333333333</v>
       </c>
       <c r="H5">
-        <v>2.47231337258245</v>
+        <v>0.244216</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02119526060933596</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.03145949481834748</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N5">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O5">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P5">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q5">
-        <v>15.67336768801687</v>
+        <v>0.5300116463226666</v>
       </c>
       <c r="R5">
-        <v>15.67336768801687</v>
+        <v>4.770104816904</v>
       </c>
       <c r="S5">
-        <v>0.2683762261317538</v>
+        <v>0.005546861741624291</v>
       </c>
       <c r="T5">
-        <v>0.2683762261317538</v>
+        <v>0.009346081539054854</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.47231337258245</v>
+        <v>0.08140533333333333</v>
       </c>
       <c r="H6">
-        <v>2.47231337258245</v>
+        <v>0.244216</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.02119526060933596</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.03145949481834748</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N6">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O6">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P6">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q6">
-        <v>2.374992424867587</v>
+        <v>0.1278318803377778</v>
       </c>
       <c r="R6">
-        <v>2.374992424867587</v>
+        <v>1.15048692304</v>
       </c>
       <c r="S6">
-        <v>0.04066716973435044</v>
+        <v>0.001337830538866764</v>
       </c>
       <c r="T6">
-        <v>0.04066716973435044</v>
+        <v>0.002254152687430257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.08140533333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.244216</v>
+      </c>
+      <c r="I7">
+        <v>0.02119526060933596</v>
+      </c>
+      <c r="J7">
+        <v>0.03145949481834748</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>8.3884095</v>
+      </c>
+      <c r="N7">
+        <v>16.776819</v>
+      </c>
+      <c r="O7">
+        <v>0.3371752201575759</v>
+      </c>
+      <c r="P7">
+        <v>0.2551723609258745</v>
+      </c>
+      <c r="Q7">
+        <v>0.682861271484</v>
+      </c>
+      <c r="R7">
+        <v>4.097167628904</v>
+      </c>
+      <c r="S7">
+        <v>0.00714651666225005</v>
+      </c>
+      <c r="T7">
+        <v>0.008027593566333044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.7593275</v>
+      </c>
+      <c r="H8">
+        <v>7.518655000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.9788047393906639</v>
+      </c>
+      <c r="J8">
+        <v>0.9685405051816526</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.500046</v>
+      </c>
+      <c r="N8">
+        <v>1.000092</v>
+      </c>
+      <c r="O8">
+        <v>0.02009953378395692</v>
+      </c>
+      <c r="P8">
+        <v>0.01521121714331422</v>
+      </c>
+      <c r="Q8">
+        <v>1.879836679065</v>
+      </c>
+      <c r="R8">
+        <v>7.51934671626</v>
+      </c>
+      <c r="S8">
+        <v>0.0196735189272798</v>
+      </c>
+      <c r="T8">
+        <v>0.01473267993641337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.7593275</v>
+      </c>
+      <c r="H9">
+        <v>7.518655000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9788047393906639</v>
+      </c>
+      <c r="J9">
+        <v>0.9685405051816526</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.821983</v>
+      </c>
+      <c r="N9">
+        <v>2.465949</v>
+      </c>
+      <c r="O9">
+        <v>0.03303991048491191</v>
+      </c>
+      <c r="P9">
+        <v>0.03750663509291002</v>
+      </c>
+      <c r="Q9">
+        <v>3.0901032964325</v>
+      </c>
+      <c r="R9">
+        <v>18.540619778595</v>
+      </c>
+      <c r="S9">
+        <v>0.03233962097167507</v>
+      </c>
+      <c r="T9">
+        <v>0.03632669530055097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.7593275</v>
+      </c>
+      <c r="H10">
+        <v>7.518655000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.9788047393906639</v>
+      </c>
+      <c r="J10">
+        <v>0.9685405051816526</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.086962666666667</v>
+      </c>
+      <c r="N10">
+        <v>21.260888</v>
+      </c>
+      <c r="O10">
+        <v>0.2848630836849173</v>
+      </c>
+      <c r="P10">
+        <v>0.3233742335981926</v>
+      </c>
+      <c r="Q10">
+        <v>26.64221364427334</v>
+      </c>
+      <c r="R10">
+        <v>159.85328186564</v>
+      </c>
+      <c r="S10">
+        <v>0.2788253363882363</v>
+      </c>
+      <c r="T10">
+        <v>0.3132010435719231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.7593275</v>
+      </c>
+      <c r="H11">
+        <v>7.518655000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.9788047393906639</v>
+      </c>
+      <c r="J11">
+        <v>0.9685405051816526</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.510773</v>
+      </c>
+      <c r="N11">
+        <v>19.532319</v>
+      </c>
+      <c r="O11">
+        <v>0.2617029270770581</v>
+      </c>
+      <c r="P11">
+        <v>0.2970830139841956</v>
+      </c>
+      <c r="Q11">
+        <v>24.4761279851575</v>
+      </c>
+      <c r="R11">
+        <v>146.856767910945</v>
+      </c>
+      <c r="S11">
+        <v>0.2561560653354337</v>
+      </c>
+      <c r="T11">
+        <v>0.2877369324451407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.47231337258245</v>
-      </c>
-      <c r="H7">
-        <v>2.47231337258245</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>8.377082177539499</v>
-      </c>
-      <c r="N7">
-        <v>8.377082177539499</v>
-      </c>
-      <c r="O7">
-        <v>0.3546320751420892</v>
-      </c>
-      <c r="P7">
-        <v>0.3546320751420892</v>
-      </c>
-      <c r="Q7">
-        <v>20.71077229075301</v>
-      </c>
-      <c r="R7">
-        <v>20.71077229075301</v>
-      </c>
-      <c r="S7">
-        <v>0.3546320751420892</v>
-      </c>
-      <c r="T7">
-        <v>0.3546320751420892</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.7593275</v>
+      </c>
+      <c r="H12">
+        <v>7.518655000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.9788047393906639</v>
+      </c>
+      <c r="J12">
+        <v>0.9685405051816526</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.570313333333333</v>
+      </c>
+      <c r="N12">
+        <v>4.71094</v>
+      </c>
+      <c r="O12">
+        <v>0.06311932481158002</v>
+      </c>
+      <c r="P12">
+        <v>0.07165253925551318</v>
+      </c>
+      <c r="Q12">
+        <v>5.903322097616667</v>
+      </c>
+      <c r="R12">
+        <v>35.4199325857</v>
+      </c>
+      <c r="S12">
+        <v>0.06178149427271325</v>
+      </c>
+      <c r="T12">
+        <v>0.06939838656808293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.7593275</v>
+      </c>
+      <c r="H13">
+        <v>7.518655000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.9788047393906639</v>
+      </c>
+      <c r="J13">
+        <v>0.9685405051816526</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.3884095</v>
+      </c>
+      <c r="N13">
+        <v>16.776819</v>
+      </c>
+      <c r="O13">
+        <v>0.3371752201575759</v>
+      </c>
+      <c r="P13">
+        <v>0.2551723609258745</v>
+      </c>
+      <c r="Q13">
+        <v>31.53477851461125</v>
+      </c>
+      <c r="R13">
+        <v>126.139114058445</v>
+      </c>
+      <c r="S13">
+        <v>0.3300287034953258</v>
+      </c>
+      <c r="T13">
+        <v>0.2471447673595415</v>
       </c>
     </row>
   </sheetData>
